--- a/data/trans_dic/P04D$individual-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P04D$individual-Clase-trans_dic.xlsx
@@ -664,7 +664,7 @@
         <v>0.3869205219686033</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>0.2482489952249436</v>
+        <v>0.2482489952249435</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.3727088453513235</v>
+        <v>0.3772976998082662</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.302899671928773</v>
+        <v>0.3033412475454775</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.218390865831632</v>
+        <v>0.2199355453017652</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.3785002627969326</v>
+        <v>0.3805546587293603</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.377940336183731</v>
+        <v>0.3783769841333018</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.2072013950938496</v>
+        <v>0.2093796170508102</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.3889699788853928</v>
+        <v>0.3903086180301774</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.353284104115693</v>
+        <v>0.3458451255422179</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.2254558720246019</v>
+        <v>0.2230017115964715</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.4693313788516133</v>
+        <v>0.472678945740628</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.4001658090026176</v>
+        <v>0.3943336270804104</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.2931446743494811</v>
+        <v>0.2943765133552037</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.4978178768762903</v>
+        <v>0.5017489831136616</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.4835825430606908</v>
+        <v>0.4869077931793171</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.2734815821096442</v>
+        <v>0.2731015955540472</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.4673687908656773</v>
+        <v>0.4653481814369452</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.4250317478336455</v>
+        <v>0.4225695479841245</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.277127858938894</v>
+        <v>0.2738965766596777</v>
       </c>
     </row>
     <row r="7">
@@ -784,31 +784,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.3531345748018431</v>
+        <v>0.3530768946612721</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.2796703030410911</v>
+        <v>0.2789593323782473</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1878912274441478</v>
+        <v>0.185360190196678</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.2938491217766139</v>
+        <v>0.2951712547127008</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.3312874786407628</v>
+        <v>0.3344330839016945</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.205363321077755</v>
+        <v>0.206436711574867</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.3438025042816675</v>
+        <v>0.3400226568277056</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.3216665633255916</v>
+        <v>0.3213807800948422</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.2042621549496867</v>
+        <v>0.2048104944371341</v>
       </c>
     </row>
     <row r="9">
@@ -819,31 +819,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.4524585317032453</v>
+        <v>0.4534044953867308</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.3811578346062269</v>
+        <v>0.3813891021961147</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.269316851824851</v>
+        <v>0.2714514613706763</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.4017830451052458</v>
+        <v>0.4078947602140927</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.4378350131178386</v>
+        <v>0.4386210109590455</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.2769254124826732</v>
+        <v>0.2795137253672018</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.4243540223163216</v>
+        <v>0.4135866027907492</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.3953294702664918</v>
+        <v>0.3952168721378876</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.2604847731498001</v>
+        <v>0.2620420321904083</v>
       </c>
     </row>
     <row r="10">
@@ -893,31 +893,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.2608497057973279</v>
+        <v>0.2666189807373602</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.2594794375612139</v>
+        <v>0.2626779529041394</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1432745838047066</v>
+        <v>0.1418965694117151</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.2236988336507509</v>
+        <v>0.2280966442270211</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.2722773962908733</v>
+        <v>0.266061837920753</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.1137041302742681</v>
+        <v>0.10897698811817</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.2638346129233916</v>
+        <v>0.2665430278895801</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.2785651852056651</v>
+        <v>0.2772549585219819</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.1398451650610057</v>
+        <v>0.1421527442878826</v>
       </c>
     </row>
     <row r="12">
@@ -928,31 +928,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.3408283744537121</v>
+        <v>0.3433675083675031</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.3404234302253094</v>
+        <v>0.3432141955924365</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.216017286872472</v>
+        <v>0.2176923371571087</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.3374408141510245</v>
+        <v>0.3393663793867247</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.4194485720914497</v>
+        <v>0.4249702605090708</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.2151853683392992</v>
+        <v>0.2089964116369714</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.3282175371003517</v>
+        <v>0.3277909591511717</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.3517432809033059</v>
+        <v>0.3516952870154266</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.199818762356651</v>
+        <v>0.2032435663079795</v>
       </c>
     </row>
     <row r="13">
@@ -991,7 +991,7 @@
         <v>0.2935703540604109</v>
       </c>
       <c r="K13" s="5" t="n">
-        <v>0.1640393113312671</v>
+        <v>0.164039311331267</v>
       </c>
     </row>
     <row r="14">
@@ -1002,31 +1002,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.2142980280126549</v>
+        <v>0.2153279507304652</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.2555625442309701</v>
+        <v>0.2554116882173038</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1327267201421512</v>
+        <v>0.1307838789513837</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.2559055884725948</v>
+        <v>0.2568813880127822</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.2786666319779376</v>
+        <v>0.279576128735938</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.1504227309743122</v>
+        <v>0.1505881267393823</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.2392964711588049</v>
+        <v>0.241136230636388</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.2739650801483876</v>
+        <v>0.2744671711073767</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.1474960532905181</v>
+        <v>0.1457244258164767</v>
       </c>
     </row>
     <row r="15">
@@ -1037,31 +1037,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.2660558653794258</v>
+        <v>0.2660445709960614</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.3101685731970758</v>
+        <v>0.3086326606788184</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1812145148511123</v>
+        <v>0.1829999057854312</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.3265737186191452</v>
+        <v>0.3255432885543145</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.3428846004642615</v>
+        <v>0.3445289998056802</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.1989332353896544</v>
+        <v>0.1992107262341287</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.279138064598016</v>
+        <v>0.2807805715107635</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.3162326563473196</v>
+        <v>0.3154267773886703</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.1818709136680669</v>
+        <v>0.1802200177897682</v>
       </c>
     </row>
     <row r="16">
@@ -1091,7 +1091,7 @@
         <v>0.2123963136644363</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>0.1220866484067316</v>
+        <v>0.1220866484067315</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>0.2219004571624903</v>
@@ -1100,7 +1100,7 @@
         <v>0.2056840614247612</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>0.1215011162541497</v>
+        <v>0.1215011162541496</v>
       </c>
     </row>
     <row r="17">
@@ -1111,31 +1111,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.1560028330512333</v>
+        <v>0.1558148144113812</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.1663511901822994</v>
+        <v>0.1662069301386731</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.09335127921858521</v>
+        <v>0.09177513279723291</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.2088063924518944</v>
+        <v>0.208046030274199</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.1828962900489149</v>
+        <v>0.1830857320026142</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.1036955486147078</v>
+        <v>0.1037950363977187</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.2008341585767544</v>
+        <v>0.1984964146028028</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.1829121326800639</v>
+        <v>0.1843345437702515</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.1066675391759869</v>
+        <v>0.1051359986207811</v>
       </c>
     </row>
     <row r="18">
@@ -1146,31 +1146,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.2276146341658255</v>
+        <v>0.227395724897388</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.230655256750483</v>
+        <v>0.2312831762264269</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1565181369626547</v>
+        <v>0.1587608500501471</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.2737644945764098</v>
+        <v>0.2759834336956093</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.2419592467092853</v>
+        <v>0.2468320247670024</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.1408058705158608</v>
+        <v>0.1434613475844952</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.2482001950037782</v>
+        <v>0.2466475702781521</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.2273339612704624</v>
+        <v>0.2276497734838772</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.1428952066979649</v>
+        <v>0.1401850223484917</v>
       </c>
     </row>
     <row r="19">
@@ -1220,31 +1220,31 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.3080321145865206</v>
+        <v>0.305542269695872</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.2626443028880295</v>
+        <v>0.2588663857583659</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.09723735213237419</v>
+        <v>0.1003766431238648</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.2196451042559136</v>
+        <v>0.2180204618852878</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.2739663251663269</v>
+        <v>0.2761748605836528</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.1005553053683014</v>
+        <v>0.1021211886374088</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.2435639900098045</v>
+        <v>0.2461345899657778</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.2817153207205307</v>
+        <v>0.2804299956676085</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.1088061509748753</v>
+        <v>0.1085211335599935</v>
       </c>
     </row>
     <row r="21">
@@ -1255,31 +1255,31 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.4264133087380531</v>
+        <v>0.4276051321937988</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.3724182996552139</v>
+        <v>0.3740434878963774</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.2646081542948533</v>
+        <v>0.2739129172601052</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.2714868868889835</v>
+        <v>0.2713682417867416</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.3322241936384578</v>
+        <v>0.333233523006163</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.1489862239080965</v>
+        <v>0.1477869024834844</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.2925472243658519</v>
+        <v>0.2918856234682313</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.3330262342406757</v>
+        <v>0.3323530732864209</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.1617272380916524</v>
+        <v>0.1634273833336898</v>
       </c>
     </row>
     <row r="22">
@@ -1329,31 +1329,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.2814478333501296</v>
+        <v>0.2811780129245573</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.2699502946086993</v>
+        <v>0.2710764146118702</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1653153862367243</v>
+        <v>0.1654299031028341</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.2689712645357137</v>
+        <v>0.2679944367385232</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.2937904608304953</v>
+        <v>0.2932736390623655</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.1547363001124412</v>
+        <v>0.1551521574781888</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.2787062800363077</v>
+        <v>0.2789170449091958</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.2860297460655863</v>
+        <v>0.2875270665783831</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.1636563081645385</v>
+        <v>0.1644196947822468</v>
       </c>
     </row>
     <row r="24">
@@ -1364,31 +1364,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.3138322469194107</v>
+        <v>0.3136108002422603</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.3031451905393369</v>
+        <v>0.3021880682888078</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.1951695573203927</v>
+        <v>0.1945355494478454</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.2991286270160236</v>
+        <v>0.2983236837533388</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.3253393090382335</v>
+        <v>0.3256731207112061</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.1772370331151253</v>
+        <v>0.1768508291642077</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.3014890194723004</v>
+        <v>0.3013819097325239</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.3083572120718167</v>
+        <v>0.3097113930839441</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.1816591303549178</v>
+        <v>0.1821014235900711</v>
       </c>
     </row>
     <row r="25">
@@ -1619,31 +1619,31 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>162952</v>
+        <v>164959</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>129972</v>
+        <v>130161</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>119998</v>
+        <v>120847</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>119021</v>
+        <v>119667</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>131166</v>
+        <v>131318</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>100903</v>
+        <v>101963</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>292375</v>
+        <v>293381</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>274200</v>
+        <v>268427</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>233672</v>
+        <v>231129</v>
       </c>
     </row>
     <row r="7">
@@ -1654,31 +1654,31 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>205197</v>
+        <v>206660</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>171708</v>
+        <v>169205</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>161072</v>
+        <v>161749</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>156541</v>
+        <v>157777</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>167830</v>
+        <v>168984</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>133180</v>
+        <v>132995</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>351305</v>
+        <v>349786</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>329887</v>
+        <v>327976</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>287227</v>
+        <v>283878</v>
       </c>
     </row>
     <row r="8">
@@ -1763,31 +1763,31 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>147043</v>
+        <v>147019</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>105499</v>
+        <v>105231</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>90791</v>
+        <v>89568</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>99324</v>
+        <v>99771</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>123329</v>
+        <v>124500</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>86898</v>
+        <v>87352</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>259367</v>
+        <v>256515</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>241089</v>
+        <v>240875</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>185134</v>
+        <v>185631</v>
       </c>
     </row>
     <row r="11">
@@ -1798,31 +1798,31 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>188401</v>
+        <v>188795</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>143783</v>
+        <v>143870</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>130137</v>
+        <v>131169</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>135807</v>
+        <v>137873</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>162994</v>
+        <v>163287</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>117179</v>
+        <v>118274</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>320135</v>
+        <v>312012</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>296299</v>
+        <v>296215</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>236092</v>
+        <v>237503</v>
       </c>
     </row>
     <row r="12">
@@ -1907,31 +1907,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>164183</v>
+        <v>167814</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>135426</v>
+        <v>137095</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>67435</v>
+        <v>66786</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>58191</v>
+        <v>59335</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>45232</v>
+        <v>44199</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>21125</v>
+        <v>20247</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>234692</v>
+        <v>237102</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>191663</v>
+        <v>190761</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>91802</v>
+        <v>93317</v>
       </c>
     </row>
     <row r="15">
@@ -1942,31 +1942,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>214522</v>
+        <v>216121</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>177672</v>
+        <v>179128</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>101673</v>
+        <v>102461</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>87778</v>
+        <v>88279</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>69680</v>
+        <v>70597</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>39979</v>
+        <v>38829</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>291964</v>
+        <v>291584</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>242012</v>
+        <v>241979</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>131173</v>
+        <v>133421</v>
       </c>
     </row>
     <row r="16">
@@ -2051,31 +2051,31 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>247966</v>
+        <v>249158</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>293804</v>
+        <v>293631</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>149373</v>
+        <v>147187</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>195938</v>
+        <v>196685</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>230144</v>
+        <v>230895</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>129204</v>
+        <v>129346</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>460114</v>
+        <v>463651</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>541222</v>
+        <v>542214</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>292685</v>
+        <v>289170</v>
       </c>
     </row>
     <row r="19">
@@ -2086,31 +2086,31 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>307856</v>
+        <v>307843</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>356582</v>
+        <v>354816</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>203942</v>
+        <v>205952</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>250046</v>
+        <v>249257</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>283180</v>
+        <v>284538</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>170872</v>
+        <v>171110</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>536720</v>
+        <v>539878</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>624722</v>
+        <v>623130</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>360897</v>
+        <v>357621</v>
       </c>
     </row>
     <row r="20">
@@ -2195,31 +2195,31 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>79354</v>
+        <v>79258</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>103255</v>
+        <v>103166</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>52919</v>
+        <v>52026</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>158776</v>
+        <v>158198</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>135022</v>
+        <v>135162</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>85941</v>
+        <v>86023</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>254872</v>
+        <v>251905</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>248568</v>
+        <v>250501</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>148872</v>
+        <v>146735</v>
       </c>
     </row>
     <row r="23">
@@ -2230,31 +2230,31 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>115780</v>
+        <v>115669</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>143169</v>
+        <v>143559</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>88727</v>
+        <v>89999</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>208170</v>
+        <v>209857</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>178625</v>
+        <v>182222</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>116697</v>
+        <v>118898</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>314982</v>
+        <v>313012</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>308935</v>
+        <v>309365</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>199434</v>
+        <v>195651</v>
       </c>
     </row>
     <row r="24">
@@ -2339,31 +2339,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>81942</v>
+        <v>81279</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>75417</v>
+        <v>74332</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>23067</v>
+        <v>23812</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>243204</v>
+        <v>241406</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>296438</v>
+        <v>298828</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>84713</v>
+        <v>86032</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>334481</v>
+        <v>338011</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>385716</v>
+        <v>383956</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>117475</v>
+        <v>117168</v>
       </c>
     </row>
     <row r="27">
@@ -2374,31 +2374,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>113433</v>
+        <v>113750</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>106938</v>
+        <v>107405</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>62772</v>
+        <v>64980</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>300607</v>
+        <v>300475</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>359475</v>
+        <v>360567</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>125513</v>
+        <v>124503</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>401749</v>
+        <v>400840</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>455970</v>
+        <v>455048</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>174613</v>
+        <v>176449</v>
       </c>
     </row>
     <row r="28">
@@ -2483,31 +2483,31 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>961092</v>
+        <v>960171</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>913977</v>
+        <v>917789</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>567507</v>
+        <v>567900</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>953750</v>
+        <v>950286</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>1037549</v>
+        <v>1035724</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>561086</v>
+        <v>562594</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>1940000</v>
+        <v>1941467</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>1978559</v>
+        <v>1988916</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>1155243</v>
+        <v>1160631</v>
       </c>
     </row>
     <row r="31">
@@ -2518,31 +2518,31 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>1071679</v>
+        <v>1070923</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>1026365</v>
+        <v>1023125</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>669992</v>
+        <v>667816</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>1060686</v>
+        <v>1057831</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>1148967</v>
+        <v>1150146</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>642676</v>
+        <v>641275</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>2098585</v>
+        <v>2097839</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>2133005</v>
+        <v>2142372</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>1282324</v>
+        <v>1285446</v>
       </c>
     </row>
     <row r="32">
